--- a/backend/utils/template.xlsx
+++ b/backend/utils/template.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranjalvishwakarma/Desktop/confidential/backend/utils/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CAC538-4A06-964F-ADCE-E90A1B3517C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB3F3EB-527E-F741-B92A-AB4AA6E809C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="DIFF">[1]master!$N$2:$N$3</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Summary For B2B, SEZ, DE (4A, 4B, 6B, 6C)</t>
   </si>
@@ -99,13 +100,22 @@
   </si>
   <si>
     <t>Cess Amount</t>
+  </si>
+  <si>
+    <t>Summary For B2CS(7)</t>
+  </si>
+  <si>
+    <t>Total Taxable  Value</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -161,8 +171,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +214,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="34"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -223,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -292,6 +333,60 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
   </cellXfs>
@@ -376,7 +471,6 @@
           <cell r="H2" t="str">
             <v>Regular B2B</v>
           </cell>
-          <cell r="N2"/>
         </row>
         <row r="3">
           <cell r="C3" t="str">
@@ -944,7 +1038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1876,4 +1970,91 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DBD3C6-AE49-7E45-9872-D42D52744D26}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" ht="46" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="B1:C3" name="Summary_1_1"/>
+  </protectedRanges>
+  <hyperlinks>
+    <hyperlink ref="G1" location="B2CS" display="HELP" xr:uid="{6A701CF4-6C3D-B447-829A-766BDFEDCDBB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>